--- a/Result/Orbit/Manufacturing/CHN.xlsx
+++ b/Result/Orbit/Manufacturing/CHN.xlsx
@@ -463,7 +463,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="n">
-        <v>31.97506997026333</v>
+        <v>31.98266577358127</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>2005</v>
       </c>
       <c r="B3" t="n">
-        <v>32.09392432867769</v>
+        <v>32.1259333055818</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>2006</v>
       </c>
       <c r="B4" t="n">
-        <v>32.45232805659434</v>
+        <v>32.1295158499977</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>2007</v>
       </c>
       <c r="B5" t="n">
-        <v>32.38335311644068</v>
+        <v>32.6078648654662</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>2008</v>
       </c>
       <c r="B6" t="n">
-        <v>32.11941160334752</v>
+        <v>32.51348508307605</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>2009</v>
       </c>
       <c r="B7" t="n">
-        <v>31.59623809103104</v>
+        <v>32.03378434166224</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>2010</v>
       </c>
       <c r="B8" t="n">
-        <v>31.61282168200608</v>
+        <v>31.47568550029378</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>2011</v>
       </c>
       <c r="B9" t="n">
-        <v>32.06479118642368</v>
+        <v>31.57184172415667</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>2012</v>
       </c>
       <c r="B10" t="n">
-        <v>31.52857786597396</v>
+        <v>32.08182139094541</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>2013</v>
       </c>
       <c r="B11" t="n">
-        <v>30.67100807217443</v>
+        <v>31.47009049615</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2014</v>
       </c>
       <c r="B12" t="n">
-        <v>30.39644420551544</v>
+        <v>30.35777285562356</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2015</v>
       </c>
       <c r="B13" t="n">
-        <v>28.95167057872186</v>
+        <v>30.04264249289972</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2016</v>
       </c>
       <c r="B14" t="n">
-        <v>28.06944223771233</v>
+        <v>28.53398190745148</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -634,50 +634,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>28.06944224246387</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>27.53680384116982</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26.45489945695712</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.48657301984734</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>28.06944224246387</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>26.9600191044543</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25.2902629999558</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.69140120291392</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>28.06944224246387</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>26.63793918964222</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24.14367201352523</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.71212462599128</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>28.06944224246387</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>26.09110660739462</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22.88285227911344</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.2262281236964</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>28.06944224246387</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>25.78526615643779</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21.9281695897578</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.41718033298506</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -725,7 +745,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="n">
-        <v>31.97506997026333</v>
+        <v>32.03660304565594</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -735,7 +755,7 @@
         <v>2005</v>
       </c>
       <c r="B3" t="n">
-        <v>32.09392432867769</v>
+        <v>32.18826470106244</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -745,7 +765,7 @@
         <v>2006</v>
       </c>
       <c r="B4" t="n">
-        <v>32.45232805659434</v>
+        <v>32.35601310952696</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -755,7 +775,7 @@
         <v>2007</v>
       </c>
       <c r="B5" t="n">
-        <v>32.38335311644068</v>
+        <v>32.76881562301649</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -765,7 +785,7 @@
         <v>2008</v>
       </c>
       <c r="B6" t="n">
-        <v>32.11941160334752</v>
+        <v>32.50383690016919</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -775,7 +795,7 @@
         <v>2009</v>
       </c>
       <c r="B7" t="n">
-        <v>31.59623809103104</v>
+        <v>31.95492021953904</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -785,7 +805,7 @@
         <v>2010</v>
       </c>
       <c r="B8" t="n">
-        <v>31.61282168200608</v>
+        <v>31.26070062019349</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -795,7 +815,7 @@
         <v>2011</v>
       </c>
       <c r="B9" t="n">
-        <v>32.06479118642368</v>
+        <v>31.54549538773016</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -805,7 +825,7 @@
         <v>2012</v>
       </c>
       <c r="B10" t="n">
-        <v>31.52857786597396</v>
+        <v>32.12115969040927</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -815,7 +835,7 @@
         <v>2013</v>
       </c>
       <c r="B11" t="n">
-        <v>30.67100807217443</v>
+        <v>31.56228414661683</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -825,7 +845,7 @@
         <v>2014</v>
       </c>
       <c r="B12" t="n">
-        <v>30.39644420551544</v>
+        <v>30.62437165997244</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -835,7 +855,7 @@
         <v>2015</v>
       </c>
       <c r="B13" t="n">
-        <v>28.95167057872186</v>
+        <v>30.12597954226423</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -845,7 +865,7 @@
         <v>2016</v>
       </c>
       <c r="B14" t="n">
-        <v>28.06944223771233</v>
+        <v>28.56163612604015</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -855,7 +875,7 @@
         <v>2017</v>
       </c>
       <c r="B15" t="n">
-        <v>28.10893687151002</v>
+        <v>27.47420513484687</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -865,7 +885,7 @@
         <v>2018</v>
       </c>
       <c r="B16" t="n">
-        <v>27.84101115441765</v>
+        <v>27.66269580545797</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -875,7 +895,7 @@
         <v>2019</v>
       </c>
       <c r="B17" t="n">
-        <v>26.77472170589195</v>
+        <v>27.54948239133535</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -885,7 +905,7 @@
         <v>2020</v>
       </c>
       <c r="B18" t="n">
-        <v>26.28518884296746</v>
+        <v>26.36114820116597</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -895,7 +915,7 @@
         <v>2021</v>
       </c>
       <c r="B19" t="n">
-        <v>27.43772961721378</v>
+        <v>26.05346914882236</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -946,50 +966,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>27.43772952438728</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>27.48070542996459</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26.08989087488712</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.91974107147182</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>27.43772952438728</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>27.53193449159554</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25.33547518716135</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.1826221704422</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>27.43772952438728</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>27.81973253762521</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24.8062706464735</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.74437161028332</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>27.43772952438728</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>27.88849150212876</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24.79613251330662</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.58522150157348</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>27.43772952438728</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>28.03945905264064</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24.50984448782083</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32.07499972888137</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
